--- a/pred_ohlcv/54_21/2020-01-21 BSV ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-21 BSV ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>4222.826240189999</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>4083.094040329999</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>5122.128657309999</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>4515.515750839999</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>4086.493050619999</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>5050.031950619999</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>5737.828071129999</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>4750.943851399999</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>4378.350551399999</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>3831.803700159999</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>3429.489401639999</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>2684.302701639998</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>2691.39955327</v>
       </c>
       <c r="H98">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>2491.28495327</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>2988.95805327</v>
       </c>
       <c r="H111">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>3022.00063933</v>
       </c>
       <c r="H129">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>2838.15636637</v>
       </c>
       <c r="H138">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>2840.67726637</v>
       </c>
       <c r="H139">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>2893.40066637</v>
       </c>
       <c r="H140">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>2869.34076637</v>
       </c>
       <c r="H141">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>2854.95546637</v>
       </c>
       <c r="H142">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>2832.22346637</v>
       </c>
       <c r="H143">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>2837.68756637</v>
       </c>
       <c r="H144">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>2918.08686637</v>
       </c>
       <c r="H145">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>2939.23906637</v>
       </c>
       <c r="H146">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>2924.54776637</v>
       </c>
       <c r="H147">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>2924.65176637</v>
       </c>
       <c r="H148">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>2924.65176637</v>
       </c>
       <c r="H149">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>2921.33776637</v>
       </c>
       <c r="H151">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>2897.45126637</v>
       </c>
       <c r="H152">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>2897.45126637</v>
       </c>
       <c r="H153">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>2897.45126637</v>
       </c>
       <c r="H154">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>2897.75626637</v>
       </c>
       <c r="H155">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>2852.85926637</v>
       </c>
       <c r="H156">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>2852.85926637</v>
       </c>
       <c r="H157">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>2796.32326637</v>
       </c>
       <c r="H158">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>2999.53086637</v>
       </c>
       <c r="H160">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>2711.429317059999</v>
       </c>
       <c r="H175">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>2765.660117059999</v>
       </c>
       <c r="H178">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>2822.344017059999</v>
       </c>
       <c r="H179">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>3520.13965059</v>
       </c>
       <c r="H219">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>3438.72948156</v>
       </c>
       <c r="H222">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>3423.26818451</v>
       </c>
       <c r="H226">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>3426.70848451</v>
       </c>
       <c r="H227">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>3428.12498451</v>
       </c>
       <c r="H228">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>3442.37738451</v>
       </c>
       <c r="H229">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>3506.954641849999</v>
       </c>
       <c r="H239">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>3492.985641849999</v>
       </c>
       <c r="H241">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>3492.985641849999</v>
       </c>
       <c r="H242">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>3478.285941849999</v>
       </c>
       <c r="H244">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>3516.952841849999</v>
       </c>
       <c r="H245">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>3509.317741849999</v>
       </c>
       <c r="H246">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>3502.535041849999</v>
       </c>
       <c r="H247">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>3499.595141849999</v>
       </c>
       <c r="H248">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>3523.89804185</v>
       </c>
       <c r="H249">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>3519.34794185</v>
       </c>
       <c r="H250">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>3700.8985104</v>
       </c>
       <c r="H276">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>3777.99900977</v>
       </c>
       <c r="H290">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>3778.15900977</v>
       </c>
       <c r="H291">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>3828.78160275</v>
       </c>
       <c r="H303">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>3808.08170275</v>
       </c>
       <c r="H304">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>3808.41776053</v>
       </c>
       <c r="H305">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>3746.78266053</v>
       </c>
       <c r="H306">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>3721.34636053</v>
       </c>
       <c r="H307">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>3739.340402750001</v>
       </c>
       <c r="H308">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>3740.856602750001</v>
       </c>
       <c r="H309">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8452,7 +8452,7 @@
         <v>3748.99783661</v>
       </c>
       <c r="H310">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -8478,7 +8478,7 @@
         <v>3729.63593661</v>
       </c>
       <c r="H311">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -8504,7 +8504,7 @@
         <v>3734.072482550001</v>
       </c>
       <c r="H312">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -8530,7 +8530,7 @@
         <v>3831.070482550001</v>
       </c>
       <c r="H313">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -8556,7 +8556,7 @@
         <v>3830.415782550001</v>
       </c>
       <c r="H314">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -8582,7 +8582,7 @@
         <v>3860.477182550001</v>
       </c>
       <c r="H315">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -8608,7 +8608,7 @@
         <v>3851.862982550001</v>
       </c>
       <c r="H316">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -8634,7 +8634,7 @@
         <v>3931.132482550001</v>
       </c>
       <c r="H317">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -8660,7 +8660,7 @@
         <v>3931.132482550001</v>
       </c>
       <c r="H318">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -8686,7 +8686,7 @@
         <v>3931.132482550001</v>
       </c>
       <c r="H319">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -8712,7 +8712,7 @@
         <v>3931.132482550001</v>
       </c>
       <c r="H320">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -8738,7 +8738,7 @@
         <v>3965.84218255</v>
       </c>
       <c r="H321">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -8764,7 +8764,7 @@
         <v>3930.41918255</v>
       </c>
       <c r="H322">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -8790,7 +8790,7 @@
         <v>3930.41918255</v>
       </c>
       <c r="H323">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -8816,7 +8816,7 @@
         <v>3930.41918255</v>
       </c>
       <c r="H324">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -8842,7 +8842,7 @@
         <v>3930.41918255</v>
       </c>
       <c r="H325">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -8868,7 +8868,7 @@
         <v>3930.41918255</v>
       </c>
       <c r="H326">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>3929.61918255</v>
       </c>
       <c r="H327">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -8920,7 +8920,7 @@
         <v>3936.34208255</v>
       </c>
       <c r="H328">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -8946,7 +8946,7 @@
         <v>3915.44738255</v>
       </c>
       <c r="H329">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -8972,7 +8972,7 @@
         <v>3915.44738255</v>
       </c>
       <c r="H330">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -8998,7 +8998,7 @@
         <v>3915.44738255</v>
       </c>
       <c r="H331">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -9024,7 +9024,7 @@
         <v>3915.44738255</v>
       </c>
       <c r="H332">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -9440,7 +9440,7 @@
         <v>3408.20239361</v>
       </c>
       <c r="H348">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -11260,7 +11260,7 @@
         <v>4121.404426789999</v>
       </c>
       <c r="H418">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -11286,7 +11286,7 @@
         <v>4202.542626139999</v>
       </c>
       <c r="H419">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -11312,7 +11312,7 @@
         <v>4182.874225509999</v>
       </c>
       <c r="H420">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -11338,7 +11338,7 @@
         <v>4303.071225909999</v>
       </c>
       <c r="H421">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -11442,7 +11442,7 @@
         <v>4631.420524879999</v>
       </c>
       <c r="H425">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -11468,7 +11468,7 @@
         <v>4962.480413989999</v>
       </c>
       <c r="H426">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -11494,7 +11494,7 @@
         <v>5281.161351649999</v>
       </c>
       <c r="H427">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -11520,7 +11520,7 @@
         <v>5098.987414639999</v>
       </c>
       <c r="H428">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -11546,7 +11546,7 @@
         <v>5004.623014639998</v>
       </c>
       <c r="H429">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -11572,7 +11572,7 @@
         <v>5254.696166349999</v>
       </c>
       <c r="H430">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -11598,7 +11598,7 @@
         <v>5485.754515369998</v>
       </c>
       <c r="H431">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -11624,7 +11624,7 @@
         <v>5934.968302679998</v>
       </c>
       <c r="H432">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -11650,7 +11650,7 @@
         <v>6307.584993029998</v>
       </c>
       <c r="H433">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -11676,7 +11676,7 @@
         <v>6057.548672599998</v>
       </c>
       <c r="H434">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -11702,7 +11702,7 @@
         <v>5983.576173239998</v>
       </c>
       <c r="H435">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -11728,7 +11728,7 @@
         <v>6288.587273239998</v>
       </c>
       <c r="H436">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -11754,7 +11754,7 @@
         <v>6188.367273239997</v>
       </c>
       <c r="H437">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -11780,7 +11780,7 @@
         <v>6430.976973879997</v>
       </c>
       <c r="H438">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -11806,7 +11806,7 @@
         <v>6139.840926539997</v>
       </c>
       <c r="H439">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -11832,7 +11832,7 @@
         <v>6083.344602429996</v>
       </c>
       <c r="H440">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -11858,7 +11858,7 @@
         <v>5923.157402429996</v>
       </c>
       <c r="H441">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -11884,7 +11884,7 @@
         <v>5950.243402429996</v>
       </c>
       <c r="H442">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -11910,7 +11910,7 @@
         <v>6069.054802429996</v>
       </c>
       <c r="H443">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -11936,7 +11936,7 @@
         <v>6161.368902429996</v>
       </c>
       <c r="H444">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -11962,7 +11962,7 @@
         <v>6352.347002429996</v>
       </c>
       <c r="H445">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -11988,7 +11988,7 @@
         <v>6822.616160379996</v>
       </c>
       <c r="H446">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -12014,7 +12014,7 @@
         <v>7275.983813609995</v>
       </c>
       <c r="H447">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -12040,7 +12040,7 @@
         <v>6916.899085399995</v>
       </c>
       <c r="H448">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -12066,7 +12066,7 @@
         <v>7460.786270909995</v>
       </c>
       <c r="H449">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -12248,7 +12248,7 @@
         <v>7201.447733889994</v>
       </c>
       <c r="H456">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -12300,7 +12300,7 @@
         <v>7110.816313999994</v>
       </c>
       <c r="H458">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -12690,7 +12690,7 @@
         <v>7202.582167249995</v>
       </c>
       <c r="H473">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -12716,7 +12716,7 @@
         <v>6751.581367249995</v>
       </c>
       <c r="H474">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -12742,7 +12742,7 @@
         <v>6650.332867249996</v>
       </c>
       <c r="H475">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -12768,7 +12768,7 @@
         <v>6601.966753209996</v>
       </c>
       <c r="H476">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -12794,7 +12794,7 @@
         <v>6106.349453209996</v>
       </c>
       <c r="H477">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -12820,7 +12820,7 @@
         <v>5982.484553209996</v>
       </c>
       <c r="H478">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -12846,7 +12846,7 @@
         <v>6313.563953209996</v>
       </c>
       <c r="H479">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -12898,7 +12898,7 @@
         <v>6871.908677389996</v>
       </c>
       <c r="H481">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="482" spans="1:8">
@@ -17552,7 +17552,7 @@
         <v>6246.279442039989</v>
       </c>
       <c r="H660">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="661" spans="1:8">
@@ -17578,7 +17578,7 @@
         <v>6246.279442039989</v>
       </c>
       <c r="H661">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="662" spans="1:8">
@@ -17604,7 +17604,7 @@
         <v>6319.443589479989</v>
       </c>
       <c r="H662">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="663" spans="1:8">
@@ -17630,7 +17630,7 @@
         <v>6319.443589479989</v>
       </c>
       <c r="H663">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="664" spans="1:8">
@@ -17656,7 +17656,7 @@
         <v>6785.662089479989</v>
       </c>
       <c r="H664">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="665" spans="1:8">
@@ -17682,7 +17682,7 @@
         <v>6919.089689479989</v>
       </c>
       <c r="H665">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="666" spans="1:8">
@@ -17708,7 +17708,7 @@
         <v>6843.217889479989</v>
       </c>
       <c r="H666">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="667" spans="1:8">
@@ -17734,7 +17734,7 @@
         <v>6804.434789479989</v>
       </c>
       <c r="H667">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="668" spans="1:8">
@@ -17760,7 +17760,7 @@
         <v>7052.70868947999</v>
       </c>
       <c r="H668">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="669" spans="1:8">
@@ -17786,7 +17786,7 @@
         <v>7044.37828947999</v>
       </c>
       <c r="H669">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="670" spans="1:8">
@@ -17812,7 +17812,7 @@
         <v>6897.46598947999</v>
       </c>
       <c r="H670">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="671" spans="1:8">
@@ -17838,7 +17838,7 @@
         <v>7265.00998947999</v>
       </c>
       <c r="H671">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="672" spans="1:8">
@@ -17864,7 +17864,7 @@
         <v>7397.015289479989</v>
       </c>
       <c r="H672">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="673" spans="1:8">
@@ -17890,7 +17890,7 @@
         <v>7302.500889479989</v>
       </c>
       <c r="H673">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="674" spans="1:8">
@@ -17916,7 +17916,7 @@
         <v>7067.42058947999</v>
       </c>
       <c r="H674">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="675" spans="1:8">
@@ -17942,7 +17942,7 @@
         <v>6984.32718947999</v>
       </c>
       <c r="H675">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="676" spans="1:8">
@@ -17968,7 +17968,7 @@
         <v>6991.65878947999</v>
       </c>
       <c r="H676">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="677" spans="1:8">
@@ -17994,7 +17994,7 @@
         <v>6884.087889479991</v>
       </c>
       <c r="H677">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="678" spans="1:8">
@@ -18020,7 +18020,7 @@
         <v>6777.746089479991</v>
       </c>
       <c r="H678">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="679" spans="1:8">
@@ -18046,7 +18046,7 @@
         <v>6705.09168947999</v>
       </c>
       <c r="H679">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="680" spans="1:8">
@@ -18072,7 +18072,7 @@
         <v>6699.928189479991</v>
       </c>
       <c r="H680">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="681" spans="1:8">
@@ -18124,7 +18124,7 @@
         <v>6785.91408947999</v>
       </c>
       <c r="H682">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="683" spans="1:8">
@@ -18176,7 +18176,7 @@
         <v>6801.32383474999</v>
       </c>
       <c r="H684">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="685" spans="1:8">
@@ -18202,7 +18202,7 @@
         <v>6823.22153474999</v>
       </c>
       <c r="H685">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="686" spans="1:8">
@@ -18228,7 +18228,7 @@
         <v>6904.920834749991</v>
       </c>
       <c r="H686">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="687" spans="1:8">
@@ -18254,7 +18254,7 @@
         <v>6946.25793474999</v>
       </c>
       <c r="H687">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="688" spans="1:8">
@@ -18280,7 +18280,7 @@
         <v>7037.374715449991</v>
       </c>
       <c r="H688">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="689" spans="1:8">
@@ -18410,7 +18410,7 @@
         <v>7376.31323474999</v>
       </c>
       <c r="H693">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="694" spans="1:8">
@@ -18436,7 +18436,7 @@
         <v>7381.325034749991</v>
       </c>
       <c r="H694">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="695" spans="1:8">
@@ -18462,7 +18462,7 @@
         <v>7314.51423474999</v>
       </c>
       <c r="H695">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="696" spans="1:8">
@@ -18488,7 +18488,7 @@
         <v>7426.301448309991</v>
       </c>
       <c r="H696">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="697" spans="1:8">
@@ -18514,7 +18514,7 @@
         <v>7402.69214830999</v>
       </c>
       <c r="H697">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="698" spans="1:8">
@@ -18540,7 +18540,7 @@
         <v>7212.32959109999</v>
       </c>
       <c r="H698">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="699" spans="1:8">
@@ -18566,7 +18566,7 @@
         <v>7241.308491099991</v>
       </c>
       <c r="H699">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="700" spans="1:8">
@@ -20958,7 +20958,7 @@
         <v>6953.738647999993</v>
       </c>
       <c r="H791">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="792" spans="1:8">
@@ -20984,7 +20984,7 @@
         <v>6963.459447999993</v>
       </c>
       <c r="H792">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="793" spans="1:8">
@@ -21010,7 +21010,7 @@
         <v>6948.651357269993</v>
       </c>
       <c r="H793">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="794" spans="1:8">
@@ -24078,7 +24078,7 @@
         <v>6888.119536879994</v>
       </c>
       <c r="H911">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="912" spans="1:8">
@@ -24104,7 +24104,7 @@
         <v>6818.131536529993</v>
       </c>
       <c r="H912">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="913" spans="1:8">
@@ -24130,7 +24130,7 @@
         <v>6839.504052949993</v>
       </c>
       <c r="H913">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="914" spans="1:8">
@@ -24156,7 +24156,7 @@
         <v>6825.861552949993</v>
       </c>
       <c r="H914">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="915" spans="1:8">
@@ -25716,7 +25716,7 @@
         <v>8369.882492439994</v>
       </c>
       <c r="H974">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="975" spans="1:8">
@@ -25742,7 +25742,7 @@
         <v>8238.299694139994</v>
       </c>
       <c r="H975">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="976" spans="1:8">
@@ -25768,7 +25768,7 @@
         <v>8551.648694139994</v>
       </c>
       <c r="H976">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="977" spans="1:8">
@@ -25794,7 +25794,7 @@
         <v>9055.752494139995</v>
       </c>
       <c r="H977">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="978" spans="1:8">
@@ -25820,7 +25820,7 @@
         <v>9055.752494139995</v>
       </c>
       <c r="H978">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="979" spans="1:8">
@@ -25846,7 +25846,7 @@
         <v>8985.424794139995</v>
       </c>
       <c r="H979">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="980" spans="1:8">
@@ -25872,7 +25872,7 @@
         <v>8893.001894139996</v>
       </c>
       <c r="H980">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="981" spans="1:8">
@@ -25898,7 +25898,7 @@
         <v>8910.208893189996</v>
       </c>
       <c r="H981">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="982" spans="1:8">
@@ -25924,7 +25924,7 @@
         <v>8910.208893189996</v>
       </c>
       <c r="H982">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="983" spans="1:8">
@@ -25950,7 +25950,7 @@
         <v>8836.731693189997</v>
       </c>
       <c r="H983">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="984" spans="1:8">
@@ -25976,7 +25976,7 @@
         <v>8798.883664759996</v>
       </c>
       <c r="H984">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="985" spans="1:8">
@@ -26002,7 +26002,7 @@
         <v>8880.834745549997</v>
       </c>
       <c r="H985">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="986" spans="1:8">
@@ -26028,7 +26028,7 @@
         <v>9038.128564759996</v>
       </c>
       <c r="H986">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="987" spans="1:8">
@@ -26054,7 +26054,7 @@
         <v>8755.174464759995</v>
       </c>
       <c r="H987">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="988" spans="1:8">
@@ -26080,7 +26080,7 @@
         <v>8755.174464759995</v>
       </c>
       <c r="H988">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="989" spans="1:8">
@@ -26106,7 +26106,7 @@
         <v>8785.577564759995</v>
       </c>
       <c r="H989">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="990" spans="1:8">
@@ -26132,7 +26132,7 @@
         <v>8776.303764759994</v>
       </c>
       <c r="H990">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="991" spans="1:8">
@@ -26158,7 +26158,7 @@
         <v>8736.784964759994</v>
       </c>
       <c r="H991">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="992" spans="1:8">
@@ -26184,7 +26184,7 @@
         <v>8805.313564759994</v>
       </c>
       <c r="H992">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="993" spans="1:8">
@@ -26210,7 +26210,7 @@
         <v>8667.320864759993</v>
       </c>
       <c r="H993">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="994" spans="1:8">
@@ -26236,7 +26236,7 @@
         <v>8667.331664759993</v>
       </c>
       <c r="H994">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="995" spans="1:8">
@@ -26262,7 +26262,7 @@
         <v>8647.302964759992</v>
       </c>
       <c r="H995">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="996" spans="1:8">
@@ -26288,7 +26288,7 @@
         <v>8687.161864759992</v>
       </c>
       <c r="H996">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="997" spans="1:8">
@@ -26314,7 +26314,7 @@
         <v>8698.340264759992</v>
       </c>
       <c r="H997">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="998" spans="1:8">
@@ -26340,7 +26340,7 @@
         <v>8835.438564759992</v>
       </c>
       <c r="H998">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="999" spans="1:8">
@@ -26366,7 +26366,7 @@
         <v>8835.438564759992</v>
       </c>
       <c r="H999">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1000" spans="1:8">
@@ -26392,7 +26392,7 @@
         <v>8835.438564759992</v>
       </c>
       <c r="H1000">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1001" spans="1:8">
@@ -26418,7 +26418,7 @@
         <v>9080.197064759992</v>
       </c>
       <c r="H1001">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1002" spans="1:8">
@@ -26444,7 +26444,7 @@
         <v>9080.197064759992</v>
       </c>
       <c r="H1002">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1003" spans="1:8">
@@ -26470,7 +26470,7 @@
         <v>9132.727964759992</v>
       </c>
       <c r="H1003">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1004" spans="1:8">
@@ -26496,7 +26496,7 @@
         <v>9126.616564759992</v>
       </c>
       <c r="H1004">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1005" spans="1:8">
@@ -26522,7 +26522,7 @@
         <v>9132.303208179992</v>
       </c>
       <c r="H1005">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1006" spans="1:8">
@@ -26548,7 +26548,7 @@
         <v>9127.723408179992</v>
       </c>
       <c r="H1006">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1007" spans="1:8">
@@ -26574,7 +26574,7 @@
         <v>9099.952167639993</v>
       </c>
       <c r="H1007">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1008" spans="1:8">
@@ -26600,7 +26600,7 @@
         <v>8983.364567639992</v>
       </c>
       <c r="H1008">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1009" spans="1:8">
@@ -26626,7 +26626,7 @@
         <v>9022.022230849992</v>
       </c>
       <c r="H1009">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1010" spans="1:8">
@@ -26652,7 +26652,7 @@
         <v>9022.022230849992</v>
       </c>
       <c r="H1010">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1011" spans="1:8">
@@ -26678,7 +26678,7 @@
         <v>9024.535530849993</v>
       </c>
       <c r="H1011">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1012" spans="1:8">
@@ -26704,7 +26704,7 @@
         <v>9024.116230849993</v>
       </c>
       <c r="H1012">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1013" spans="1:8">
@@ -26730,7 +26730,7 @@
         <v>8984.840930849994</v>
       </c>
       <c r="H1013">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1014" spans="1:8">
@@ -26756,7 +26756,7 @@
         <v>8951.377730849994</v>
       </c>
       <c r="H1014">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1015" spans="1:8">
@@ -29122,7 +29122,7 @@
         <v>9471.97832312999</v>
       </c>
       <c r="H1105">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1106" spans="1:8">
@@ -29148,7 +29148,7 @@
         <v>9490.632569659991</v>
       </c>
       <c r="H1106">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1107" spans="1:8">
@@ -29174,7 +29174,7 @@
         <v>9484.658525689991</v>
       </c>
       <c r="H1107">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1108" spans="1:8">
@@ -29200,7 +29200,7 @@
         <v>9484.66222568999</v>
       </c>
       <c r="H1108">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1109" spans="1:8">
@@ -29226,7 +29226,7 @@
         <v>9463.572625689991</v>
       </c>
       <c r="H1109">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1110" spans="1:8">
@@ -31280,7 +31280,7 @@
         <v>10563.20111508999</v>
       </c>
       <c r="H1188">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1189" spans="1:8">
@@ -31306,7 +31306,7 @@
         <v>10183.45641508999</v>
       </c>
       <c r="H1189">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1190" spans="1:8">
@@ -31358,7 +31358,7 @@
         <v>10256.23792138999</v>
       </c>
       <c r="H1191">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1192" spans="1:8">
@@ -31384,7 +31384,7 @@
         <v>10232.53502138999</v>
       </c>
       <c r="H1192">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1193" spans="1:8">
@@ -31410,7 +31410,7 @@
         <v>10227.74702138999</v>
       </c>
       <c r="H1193">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1194" spans="1:8">
@@ -31852,7 +31852,7 @@
         <v>10290.96313511999</v>
       </c>
       <c r="H1210">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1211" spans="1:8">
@@ -31878,7 +31878,7 @@
         <v>10315.56593511999</v>
       </c>
       <c r="H1211">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1212" spans="1:8">
@@ -31904,7 +31904,7 @@
         <v>10373.82983511999</v>
       </c>
       <c r="H1212">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1213" spans="1:8">
@@ -31930,7 +31930,7 @@
         <v>10452.38793511999</v>
       </c>
       <c r="H1213">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1214" spans="1:8">
@@ -31956,7 +31956,7 @@
         <v>10433.84873511999</v>
       </c>
       <c r="H1214">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1215" spans="1:8">
@@ -31982,7 +31982,7 @@
         <v>10633.25823511999</v>
       </c>
       <c r="H1215">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1216" spans="1:8">
@@ -32008,7 +32008,7 @@
         <v>10713.60703511999</v>
       </c>
       <c r="H1216">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1217" spans="1:8">
@@ -32034,7 +32034,7 @@
         <v>10983.37893620999</v>
       </c>
       <c r="H1217">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1218" spans="1:8">
@@ -32060,7 +32060,7 @@
         <v>11515.62807357999</v>
       </c>
       <c r="H1218">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1219" spans="1:8">
@@ -32086,7 +32086,7 @@
         <v>11451.71857357999</v>
       </c>
       <c r="H1219">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1220" spans="1:8">
@@ -32112,7 +32112,7 @@
         <v>11451.71857357999</v>
       </c>
       <c r="H1220">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1221" spans="1:8">
@@ -32138,7 +32138,7 @@
         <v>11424.73607357999</v>
       </c>
       <c r="H1221">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1222" spans="1:8">
@@ -32164,7 +32164,7 @@
         <v>11475.82763888999</v>
       </c>
       <c r="H1222">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1223" spans="1:8">
@@ -32190,7 +32190,7 @@
         <v>11576.96923888999</v>
       </c>
       <c r="H1223">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1224" spans="1:8">
@@ -32216,7 +32216,7 @@
         <v>11734.84033889</v>
       </c>
       <c r="H1224">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1225" spans="1:8">
@@ -32242,7 +32242,7 @@
         <v>12094.34357000999</v>
       </c>
       <c r="H1225">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1226" spans="1:8">
@@ -32268,7 +32268,7 @@
         <v>12404.56049637999</v>
       </c>
       <c r="H1226">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1227" spans="1:8">
@@ -32294,7 +32294,7 @@
         <v>13450.88067875999</v>
       </c>
       <c r="H1227">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1228" spans="1:8">
@@ -32788,7 +32788,7 @@
         <v>14827.83035352</v>
       </c>
       <c r="H1246">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1247" spans="1:8">
@@ -32840,7 +32840,7 @@
         <v>15232.59053199</v>
       </c>
       <c r="H1248">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1249" spans="1:8">
@@ -32892,7 +32892,7 @@
         <v>15138.77305686</v>
       </c>
       <c r="H1250">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1251" spans="1:8">
@@ -32918,7 +32918,7 @@
         <v>15301.43858161</v>
       </c>
       <c r="H1251">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1252" spans="1:8">
@@ -32944,7 +32944,7 @@
         <v>14807.29451798</v>
       </c>
       <c r="H1252">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1253" spans="1:8">
@@ -33126,7 +33126,7 @@
         <v>13564.78283243</v>
       </c>
       <c r="H1259">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1260" spans="1:8">
@@ -33152,7 +33152,7 @@
         <v>14075.34533306</v>
       </c>
       <c r="H1260">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1261" spans="1:8">
@@ -33178,7 +33178,7 @@
         <v>13932.34109013</v>
       </c>
       <c r="H1261">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1262" spans="1:8">
@@ -33204,7 +33204,7 @@
         <v>13961.36209103</v>
       </c>
       <c r="H1262">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1263" spans="1:8">
@@ -33230,7 +33230,7 @@
         <v>14398.90379103</v>
       </c>
       <c r="H1263">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1264" spans="1:8">
@@ -33256,7 +33256,7 @@
         <v>14305.64659103</v>
       </c>
       <c r="H1264">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1265" spans="1:8">
@@ -33282,7 +33282,7 @@
         <v>14232.00029103</v>
       </c>
       <c r="H1265">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1266" spans="1:8">
@@ -33308,7 +33308,7 @@
         <v>14432.92755207</v>
       </c>
       <c r="H1266">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1267" spans="1:8">
@@ -33334,7 +33334,7 @@
         <v>14384.31575207</v>
       </c>
       <c r="H1267">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1268" spans="1:8">
@@ -33360,7 +33360,7 @@
         <v>14429.14105207</v>
       </c>
       <c r="H1268">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1269" spans="1:8">
@@ -33386,7 +33386,7 @@
         <v>14183.67975207</v>
       </c>
       <c r="H1269">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1270" spans="1:8">
@@ -33412,7 +33412,7 @@
         <v>13995.01350059</v>
       </c>
       <c r="H1270">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1271" spans="1:8">
@@ -33438,7 +33438,7 @@
         <v>14315.23439925</v>
       </c>
       <c r="H1271">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1272" spans="1:8">
@@ -33464,7 +33464,7 @@
         <v>14263.14019925</v>
       </c>
       <c r="H1272">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1273" spans="1:8">
@@ -33698,7 +33698,7 @@
         <v>15286.06218841</v>
       </c>
       <c r="H1281">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1282" spans="1:8">
@@ -33724,7 +33724,7 @@
         <v>15758.56538841</v>
       </c>
       <c r="H1282">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1283" spans="1:8">
@@ -33750,7 +33750,7 @@
         <v>15037.83795666</v>
       </c>
       <c r="H1283">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1284" spans="1:8">
@@ -33776,7 +33776,7 @@
         <v>15684.66006039</v>
       </c>
       <c r="H1284">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1285" spans="1:8">
@@ -33802,7 +33802,7 @@
         <v>16048.65636039</v>
       </c>
       <c r="H1285">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1286" spans="1:8">
@@ -33828,7 +33828,7 @@
         <v>15670.36707006</v>
       </c>
       <c r="H1286">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1287" spans="1:8">
@@ -33854,7 +33854,7 @@
         <v>15257.92583746</v>
       </c>
       <c r="H1287">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1288" spans="1:8">
@@ -33880,7 +33880,7 @@
         <v>15740.59086142</v>
       </c>
       <c r="H1288">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2020-01-21 BSV ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-21 BSV ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>4222.826240189999</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>4083.094040329999</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>5122.128657309999</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>4515.515750839999</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>4086.493050619999</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>5050.031950619999</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>5737.828071129999</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>4750.943851399999</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>4378.350551399999</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>3831.803700159999</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>3429.489401639999</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>2684.302701639998</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>2799.246986679999</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>2789.425986679999</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>2785.241386679999</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>2761.330886679999</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>2762.31745327</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>2762.31745327</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>2762.31745327</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>2764.09465327</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>2717.82025327</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>2707.32525327</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>2691.39955327</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>2499.50755327</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>2499.50755327</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>2504.76975327</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>2572.25255327</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>2578.31175327</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>2578.31175327</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>2575.85395327</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>2988.95805327</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>2950.0765749</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>3012.18330355</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>3004.01700355</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>3101.232774900001</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>3304.700874900001</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>3217.907274900001</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>3217.907274900001</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>3221.178874900001</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>3291.024874900001</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>3249.700974900001</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>3304.290918430001</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>3264.52781843</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>3268.98573933</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>2986.97833933</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>3055.89103933</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>3031.61853933</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>3022.00063933</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>3022.00063933</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>3027.19673933</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>2928.36193933</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>2918.50186637</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>2916.79576637</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>2918.87756637</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>2905.72196637</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>2838.15636637</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>2838.15636637</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>2840.67726637</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>2893.40066637</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>2869.34076637</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>2854.95546637</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>2832.22346637</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>2837.68756637</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>2918.08686637</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>2939.23906637</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>2924.54776637</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>2924.65176637</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>2924.65176637</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>2924.65176637</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>2921.33776637</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>2897.45126637</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>2897.45126637</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>2897.45126637</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>2897.75626637</v>
       </c>
       <c r="H155">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>2852.85926637</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>2852.85926637</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>2796.32326637</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>2999.53086637</v>
       </c>
       <c r="H160">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>2961.22626637</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>3000.73936637</v>
       </c>
       <c r="H162">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>2993.06756637</v>
       </c>
       <c r="H163">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>2997.1726542</v>
       </c>
       <c r="H164">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>2996.986854199999</v>
       </c>
       <c r="H165">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>2948.698117059999</v>
       </c>
       <c r="H166">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>2936.179717059999</v>
       </c>
       <c r="H167">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>3439.39535059</v>
       </c>
       <c r="H220">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>3438.39535059</v>
       </c>
       <c r="H221">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>3438.72948156</v>
       </c>
       <c r="H222">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>3438.72948156</v>
       </c>
       <c r="H223">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>3418.87418451</v>
       </c>
       <c r="H224">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>3413.21588451</v>
       </c>
       <c r="H225">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>3423.26818451</v>
       </c>
       <c r="H226">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>3426.70848451</v>
       </c>
       <c r="H227">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>3428.12498451</v>
       </c>
       <c r="H228">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>3442.37738451</v>
       </c>
       <c r="H229">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>3442.37738451</v>
       </c>
       <c r="H230">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>3442.38718451</v>
       </c>
       <c r="H231">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>3442.38718451</v>
       </c>
       <c r="H232">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>3440.88398451</v>
       </c>
       <c r="H233">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>3441.40628451</v>
       </c>
       <c r="H234">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>3443.30168451</v>
       </c>
       <c r="H235">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>3437.74004185</v>
       </c>
       <c r="H236">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>3441.940041849999</v>
       </c>
       <c r="H237">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>3438.710441849999</v>
       </c>
       <c r="H238">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>3506.954641849999</v>
       </c>
       <c r="H239">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>3492.418641849999</v>
       </c>
       <c r="H240">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>3492.985641849999</v>
       </c>
       <c r="H241">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>3492.985641849999</v>
       </c>
       <c r="H242">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>3478.285941849999</v>
       </c>
       <c r="H243">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>3478.285941849999</v>
       </c>
       <c r="H244">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>3516.952841849999</v>
       </c>
       <c r="H245">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>3509.317741849999</v>
       </c>
       <c r="H246">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>3502.535041849999</v>
       </c>
       <c r="H247">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>3499.595141849999</v>
       </c>
       <c r="H248">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>3523.89804185</v>
       </c>
       <c r="H249">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>3519.34794185</v>
       </c>
       <c r="H250">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>3705.2711104</v>
       </c>
       <c r="H277">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>3705.2763104</v>
       </c>
       <c r="H278">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>3700.6570104</v>
       </c>
       <c r="H279">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>3705.1240104</v>
       </c>
       <c r="H280">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>3697.9335104</v>
       </c>
       <c r="H281">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>3697.9335104</v>
       </c>
       <c r="H282">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>3711.6033104</v>
       </c>
       <c r="H283">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>3768.9533104</v>
       </c>
       <c r="H284">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>3760.7140104</v>
       </c>
       <c r="H285">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>3720.75700974</v>
       </c>
       <c r="H286">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>3795.41140977</v>
       </c>
       <c r="H287">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>3716.79250977</v>
       </c>
       <c r="H288">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>3716.79250977</v>
       </c>
       <c r="H289">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>3777.99900977</v>
       </c>
       <c r="H290">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>3778.15900977</v>
       </c>
       <c r="H291">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>3788.569209769999</v>
       </c>
       <c r="H292">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>3856.528809769999</v>
       </c>
       <c r="H293">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>3978.839709079999</v>
       </c>
       <c r="H294">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>4100.13050908</v>
       </c>
       <c r="H295">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>4161.07990908</v>
       </c>
       <c r="H296">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>4024.85610908</v>
       </c>
       <c r="H297">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>4081.47530275</v>
       </c>
       <c r="H298">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>4080.00610275</v>
       </c>
       <c r="H299">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>4009.77490275</v>
       </c>
       <c r="H300">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>3964.95620275</v>
       </c>
       <c r="H301">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>3903.12580275</v>
       </c>
       <c r="H302">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>3828.78160275</v>
       </c>
       <c r="H303">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>3808.08170275</v>
       </c>
       <c r="H304">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>3808.41776053</v>
       </c>
       <c r="H305">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>3746.78266053</v>
       </c>
       <c r="H306">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>3721.34636053</v>
       </c>
       <c r="H307">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>3739.340402750001</v>
       </c>
       <c r="H308">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>3740.856602750001</v>
       </c>
       <c r="H309">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8452,7 +8452,7 @@
         <v>3748.99783661</v>
       </c>
       <c r="H310">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -8478,7 +8478,7 @@
         <v>3729.63593661</v>
       </c>
       <c r="H311">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -8504,7 +8504,7 @@
         <v>3734.072482550001</v>
       </c>
       <c r="H312">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -8530,7 +8530,7 @@
         <v>3831.070482550001</v>
       </c>
       <c r="H313">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -8556,7 +8556,7 @@
         <v>3830.415782550001</v>
       </c>
       <c r="H314">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -8582,7 +8582,7 @@
         <v>3860.477182550001</v>
       </c>
       <c r="H315">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -8608,7 +8608,7 @@
         <v>3851.862982550001</v>
       </c>
       <c r="H316">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -8634,7 +8634,7 @@
         <v>3931.132482550001</v>
       </c>
       <c r="H317">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -8660,7 +8660,7 @@
         <v>3931.132482550001</v>
       </c>
       <c r="H318">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -8686,7 +8686,7 @@
         <v>3931.132482550001</v>
       </c>
       <c r="H319">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -8712,7 +8712,7 @@
         <v>3931.132482550001</v>
       </c>
       <c r="H320">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -8738,7 +8738,7 @@
         <v>3965.84218255</v>
       </c>
       <c r="H321">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -8764,7 +8764,7 @@
         <v>3930.41918255</v>
       </c>
       <c r="H322">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -8790,7 +8790,7 @@
         <v>3930.41918255</v>
       </c>
       <c r="H323">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -8816,7 +8816,7 @@
         <v>3930.41918255</v>
       </c>
       <c r="H324">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -8842,7 +8842,7 @@
         <v>3930.41918255</v>
       </c>
       <c r="H325">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -8868,7 +8868,7 @@
         <v>3930.41918255</v>
       </c>
       <c r="H326">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>3929.61918255</v>
       </c>
       <c r="H327">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -8920,7 +8920,7 @@
         <v>3936.34208255</v>
       </c>
       <c r="H328">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -8946,7 +8946,7 @@
         <v>3915.44738255</v>
       </c>
       <c r="H329">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -8972,7 +8972,7 @@
         <v>3915.44738255</v>
       </c>
       <c r="H330">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -8998,7 +8998,7 @@
         <v>3915.44738255</v>
       </c>
       <c r="H331">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -9024,7 +9024,7 @@
         <v>3915.44738255</v>
       </c>
       <c r="H332">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -9050,7 +9050,7 @@
         <v>3915.44738255</v>
       </c>
       <c r="H333">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -9076,7 +9076,7 @@
         <v>3915.57738255</v>
       </c>
       <c r="H334">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -9102,7 +9102,7 @@
         <v>4004.913696990001</v>
       </c>
       <c r="H335">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -9128,7 +9128,7 @@
         <v>4004.913696990001</v>
       </c>
       <c r="H336">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -9284,7 +9284,7 @@
         <v>4073.19308255</v>
       </c>
       <c r="H342">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -9310,7 +9310,7 @@
         <v>4074.27538255</v>
       </c>
       <c r="H343">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -9336,7 +9336,7 @@
         <v>4069.16198255</v>
       </c>
       <c r="H344">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -9362,7 +9362,7 @@
         <v>3993.19209361</v>
       </c>
       <c r="H345">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -9388,7 +9388,7 @@
         <v>3461.48559361</v>
       </c>
       <c r="H346">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -9440,7 +9440,7 @@
         <v>3408.20239361</v>
       </c>
       <c r="H348">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -9518,7 +9518,7 @@
         <v>3427.241744</v>
       </c>
       <c r="H351">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -9544,7 +9544,7 @@
         <v>3314.020244</v>
       </c>
       <c r="H352">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -9570,7 +9570,7 @@
         <v>3315.357644</v>
       </c>
       <c r="H353">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -10818,7 +10818,7 @@
         <v>3334.76120561</v>
       </c>
       <c r="H401">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -10844,7 +10844,7 @@
         <v>3496.3820067</v>
       </c>
       <c r="H402">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -10870,7 +10870,7 @@
         <v>3656.40002433</v>
       </c>
       <c r="H403">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -11260,7 +11260,7 @@
         <v>4121.404426789999</v>
       </c>
       <c r="H418">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -11286,7 +11286,7 @@
         <v>4202.542626139999</v>
       </c>
       <c r="H419">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -11312,7 +11312,7 @@
         <v>4182.874225509999</v>
       </c>
       <c r="H420">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -11338,7 +11338,7 @@
         <v>4303.071225909999</v>
       </c>
       <c r="H421">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -11442,7 +11442,7 @@
         <v>4631.420524879999</v>
       </c>
       <c r="H425">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -11468,7 +11468,7 @@
         <v>4962.480413989999</v>
       </c>
       <c r="H426">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -11494,7 +11494,7 @@
         <v>5281.161351649999</v>
       </c>
       <c r="H427">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -11520,7 +11520,7 @@
         <v>5098.987414639999</v>
       </c>
       <c r="H428">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -11546,7 +11546,7 @@
         <v>5004.623014639998</v>
       </c>
       <c r="H429">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -11572,7 +11572,7 @@
         <v>5254.696166349999</v>
       </c>
       <c r="H430">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -11598,7 +11598,7 @@
         <v>5485.754515369998</v>
       </c>
       <c r="H431">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -11624,7 +11624,7 @@
         <v>5934.968302679998</v>
       </c>
       <c r="H432">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -11650,7 +11650,7 @@
         <v>6307.584993029998</v>
       </c>
       <c r="H433">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -11676,7 +11676,7 @@
         <v>6057.548672599998</v>
       </c>
       <c r="H434">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -11702,7 +11702,7 @@
         <v>5983.576173239998</v>
       </c>
       <c r="H435">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -11728,7 +11728,7 @@
         <v>6288.587273239998</v>
       </c>
       <c r="H436">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -11754,7 +11754,7 @@
         <v>6188.367273239997</v>
       </c>
       <c r="H437">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -11780,7 +11780,7 @@
         <v>6430.976973879997</v>
       </c>
       <c r="H438">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -11806,7 +11806,7 @@
         <v>6139.840926539997</v>
       </c>
       <c r="H439">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -11832,7 +11832,7 @@
         <v>6083.344602429996</v>
       </c>
       <c r="H440">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -11858,7 +11858,7 @@
         <v>5923.157402429996</v>
       </c>
       <c r="H441">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -11884,7 +11884,7 @@
         <v>5950.243402429996</v>
       </c>
       <c r="H442">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -11910,7 +11910,7 @@
         <v>6069.054802429996</v>
       </c>
       <c r="H443">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -11936,7 +11936,7 @@
         <v>6161.368902429996</v>
       </c>
       <c r="H444">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -11962,7 +11962,7 @@
         <v>6352.347002429996</v>
       </c>
       <c r="H445">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -11988,7 +11988,7 @@
         <v>6822.616160379996</v>
       </c>
       <c r="H446">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -12014,7 +12014,7 @@
         <v>7275.983813609995</v>
       </c>
       <c r="H447">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -12040,7 +12040,7 @@
         <v>6916.899085399995</v>
       </c>
       <c r="H448">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -12066,7 +12066,7 @@
         <v>7460.786270909995</v>
       </c>
       <c r="H449">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -12248,7 +12248,7 @@
         <v>7201.447733889994</v>
       </c>
       <c r="H456">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -12300,7 +12300,7 @@
         <v>7110.816313999994</v>
       </c>
       <c r="H458">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -12690,7 +12690,7 @@
         <v>7202.582167249995</v>
       </c>
       <c r="H473">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -12716,7 +12716,7 @@
         <v>6751.581367249995</v>
       </c>
       <c r="H474">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -12742,7 +12742,7 @@
         <v>6650.332867249996</v>
       </c>
       <c r="H475">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -12768,7 +12768,7 @@
         <v>6601.966753209996</v>
       </c>
       <c r="H476">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -12794,7 +12794,7 @@
         <v>6106.349453209996</v>
       </c>
       <c r="H477">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -12820,7 +12820,7 @@
         <v>5982.484553209996</v>
       </c>
       <c r="H478">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -12846,7 +12846,7 @@
         <v>6313.563953209996</v>
       </c>
       <c r="H479">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -12898,7 +12898,7 @@
         <v>6871.908677389996</v>
       </c>
       <c r="H481">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="482" spans="1:8">
@@ -17552,7 +17552,7 @@
         <v>6246.279442039989</v>
       </c>
       <c r="H660">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="661" spans="1:8">
@@ -17578,7 +17578,7 @@
         <v>6246.279442039989</v>
       </c>
       <c r="H661">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="662" spans="1:8">
@@ -17604,7 +17604,7 @@
         <v>6319.443589479989</v>
       </c>
       <c r="H662">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="663" spans="1:8">
@@ -17630,7 +17630,7 @@
         <v>6319.443589479989</v>
       </c>
       <c r="H663">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="664" spans="1:8">
@@ -17656,7 +17656,7 @@
         <v>6785.662089479989</v>
       </c>
       <c r="H664">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="665" spans="1:8">
@@ -17682,7 +17682,7 @@
         <v>6919.089689479989</v>
       </c>
       <c r="H665">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="666" spans="1:8">
@@ -17708,7 +17708,7 @@
         <v>6843.217889479989</v>
       </c>
       <c r="H666">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="667" spans="1:8">
@@ -17734,7 +17734,7 @@
         <v>6804.434789479989</v>
       </c>
       <c r="H667">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="668" spans="1:8">
@@ -17760,7 +17760,7 @@
         <v>7052.70868947999</v>
       </c>
       <c r="H668">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="669" spans="1:8">
@@ -17786,7 +17786,7 @@
         <v>7044.37828947999</v>
       </c>
       <c r="H669">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="670" spans="1:8">
@@ -17812,7 +17812,7 @@
         <v>6897.46598947999</v>
       </c>
       <c r="H670">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="671" spans="1:8">
@@ -17838,7 +17838,7 @@
         <v>7265.00998947999</v>
       </c>
       <c r="H671">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="672" spans="1:8">
@@ -17864,7 +17864,7 @@
         <v>7397.015289479989</v>
       </c>
       <c r="H672">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="673" spans="1:8">
@@ -17890,7 +17890,7 @@
         <v>7302.500889479989</v>
       </c>
       <c r="H673">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="674" spans="1:8">
@@ -17916,7 +17916,7 @@
         <v>7067.42058947999</v>
       </c>
       <c r="H674">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="675" spans="1:8">
@@ -17942,7 +17942,7 @@
         <v>6984.32718947999</v>
       </c>
       <c r="H675">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="676" spans="1:8">
@@ -17968,7 +17968,7 @@
         <v>6991.65878947999</v>
       </c>
       <c r="H676">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="677" spans="1:8">
@@ -17994,7 +17994,7 @@
         <v>6884.087889479991</v>
       </c>
       <c r="H677">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="678" spans="1:8">
@@ -18020,7 +18020,7 @@
         <v>6777.746089479991</v>
       </c>
       <c r="H678">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="679" spans="1:8">
@@ -18046,7 +18046,7 @@
         <v>6705.09168947999</v>
       </c>
       <c r="H679">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="680" spans="1:8">
@@ -18072,7 +18072,7 @@
         <v>6699.928189479991</v>
       </c>
       <c r="H680">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="681" spans="1:8">
@@ -18124,7 +18124,7 @@
         <v>6785.91408947999</v>
       </c>
       <c r="H682">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="683" spans="1:8">
@@ -18176,7 +18176,7 @@
         <v>6801.32383474999</v>
       </c>
       <c r="H684">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="685" spans="1:8">
@@ -18202,7 +18202,7 @@
         <v>6823.22153474999</v>
       </c>
       <c r="H685">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="686" spans="1:8">
@@ -18228,7 +18228,7 @@
         <v>6904.920834749991</v>
       </c>
       <c r="H686">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="687" spans="1:8">
@@ -18254,7 +18254,7 @@
         <v>6946.25793474999</v>
       </c>
       <c r="H687">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="688" spans="1:8">
@@ -18280,7 +18280,7 @@
         <v>7037.374715449991</v>
       </c>
       <c r="H688">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="689" spans="1:8">
@@ -18410,7 +18410,7 @@
         <v>7376.31323474999</v>
       </c>
       <c r="H693">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="694" spans="1:8">
@@ -18436,7 +18436,7 @@
         <v>7381.325034749991</v>
       </c>
       <c r="H694">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="695" spans="1:8">
@@ -18462,7 +18462,7 @@
         <v>7314.51423474999</v>
       </c>
       <c r="H695">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="696" spans="1:8">
@@ -18488,7 +18488,7 @@
         <v>7426.301448309991</v>
       </c>
       <c r="H696">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="697" spans="1:8">
@@ -18514,7 +18514,7 @@
         <v>7402.69214830999</v>
       </c>
       <c r="H697">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="698" spans="1:8">
@@ -18540,7 +18540,7 @@
         <v>7212.32959109999</v>
       </c>
       <c r="H698">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="699" spans="1:8">
@@ -18566,7 +18566,7 @@
         <v>7241.308491099991</v>
       </c>
       <c r="H699">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="700" spans="1:8">
@@ -20958,7 +20958,7 @@
         <v>6953.738647999993</v>
       </c>
       <c r="H791">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="792" spans="1:8">
@@ -20984,7 +20984,7 @@
         <v>6963.459447999993</v>
       </c>
       <c r="H792">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="793" spans="1:8">
@@ -21010,7 +21010,7 @@
         <v>6948.651357269993</v>
       </c>
       <c r="H793">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="794" spans="1:8">
@@ -24078,7 +24078,7 @@
         <v>6888.119536879994</v>
       </c>
       <c r="H911">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="912" spans="1:8">
@@ -24104,7 +24104,7 @@
         <v>6818.131536529993</v>
       </c>
       <c r="H912">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="913" spans="1:8">
@@ -24130,7 +24130,7 @@
         <v>6839.504052949993</v>
       </c>
       <c r="H913">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="914" spans="1:8">
@@ -24156,7 +24156,7 @@
         <v>6825.861552949993</v>
       </c>
       <c r="H914">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="915" spans="1:8">
@@ -25716,7 +25716,7 @@
         <v>8369.882492439994</v>
       </c>
       <c r="H974">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="975" spans="1:8">
@@ -25742,7 +25742,7 @@
         <v>8238.299694139994</v>
       </c>
       <c r="H975">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="976" spans="1:8">
@@ -25768,7 +25768,7 @@
         <v>8551.648694139994</v>
       </c>
       <c r="H976">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="977" spans="1:8">
@@ -25794,7 +25794,7 @@
         <v>9055.752494139995</v>
       </c>
       <c r="H977">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="978" spans="1:8">
@@ -25820,7 +25820,7 @@
         <v>9055.752494139995</v>
       </c>
       <c r="H978">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="979" spans="1:8">
@@ -25846,7 +25846,7 @@
         <v>8985.424794139995</v>
       </c>
       <c r="H979">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="980" spans="1:8">
@@ -25872,7 +25872,7 @@
         <v>8893.001894139996</v>
       </c>
       <c r="H980">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="981" spans="1:8">
@@ -25898,7 +25898,7 @@
         <v>8910.208893189996</v>
       </c>
       <c r="H981">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="982" spans="1:8">
@@ -25924,7 +25924,7 @@
         <v>8910.208893189996</v>
       </c>
       <c r="H982">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="983" spans="1:8">
@@ -25950,7 +25950,7 @@
         <v>8836.731693189997</v>
       </c>
       <c r="H983">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="984" spans="1:8">
@@ -25976,7 +25976,7 @@
         <v>8798.883664759996</v>
       </c>
       <c r="H984">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="985" spans="1:8">
@@ -26002,7 +26002,7 @@
         <v>8880.834745549997</v>
       </c>
       <c r="H985">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="986" spans="1:8">
@@ -26028,7 +26028,7 @@
         <v>9038.128564759996</v>
       </c>
       <c r="H986">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="987" spans="1:8">
@@ -26054,7 +26054,7 @@
         <v>8755.174464759995</v>
       </c>
       <c r="H987">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="988" spans="1:8">
@@ -26080,7 +26080,7 @@
         <v>8755.174464759995</v>
       </c>
       <c r="H988">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="989" spans="1:8">
@@ -26106,7 +26106,7 @@
         <v>8785.577564759995</v>
       </c>
       <c r="H989">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="990" spans="1:8">
@@ -26132,7 +26132,7 @@
         <v>8776.303764759994</v>
       </c>
       <c r="H990">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="991" spans="1:8">
@@ -26158,7 +26158,7 @@
         <v>8736.784964759994</v>
       </c>
       <c r="H991">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="992" spans="1:8">
@@ -26184,7 +26184,7 @@
         <v>8805.313564759994</v>
       </c>
       <c r="H992">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="993" spans="1:8">
@@ -26210,7 +26210,7 @@
         <v>8667.320864759993</v>
       </c>
       <c r="H993">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="994" spans="1:8">
@@ -26236,7 +26236,7 @@
         <v>8667.331664759993</v>
       </c>
       <c r="H994">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="995" spans="1:8">
@@ -26262,7 +26262,7 @@
         <v>8647.302964759992</v>
       </c>
       <c r="H995">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="996" spans="1:8">
@@ -26288,7 +26288,7 @@
         <v>8687.161864759992</v>
       </c>
       <c r="H996">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="997" spans="1:8">
@@ -26314,7 +26314,7 @@
         <v>8698.340264759992</v>
       </c>
       <c r="H997">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="998" spans="1:8">
@@ -26340,7 +26340,7 @@
         <v>8835.438564759992</v>
       </c>
       <c r="H998">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="999" spans="1:8">
@@ -26366,7 +26366,7 @@
         <v>8835.438564759992</v>
       </c>
       <c r="H999">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1000" spans="1:8">
@@ -26392,7 +26392,7 @@
         <v>8835.438564759992</v>
       </c>
       <c r="H1000">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1001" spans="1:8">
@@ -26418,7 +26418,7 @@
         <v>9080.197064759992</v>
       </c>
       <c r="H1001">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1002" spans="1:8">
@@ -26444,7 +26444,7 @@
         <v>9080.197064759992</v>
       </c>
       <c r="H1002">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1003" spans="1:8">
@@ -26470,7 +26470,7 @@
         <v>9132.727964759992</v>
       </c>
       <c r="H1003">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1004" spans="1:8">
@@ -26496,7 +26496,7 @@
         <v>9126.616564759992</v>
       </c>
       <c r="H1004">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1005" spans="1:8">
@@ -26522,7 +26522,7 @@
         <v>9132.303208179992</v>
       </c>
       <c r="H1005">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1006" spans="1:8">
@@ -26548,7 +26548,7 @@
         <v>9127.723408179992</v>
       </c>
       <c r="H1006">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1007" spans="1:8">
@@ -26574,7 +26574,7 @@
         <v>9099.952167639993</v>
       </c>
       <c r="H1007">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1008" spans="1:8">
@@ -26600,7 +26600,7 @@
         <v>8983.364567639992</v>
       </c>
       <c r="H1008">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1009" spans="1:8">
@@ -26626,7 +26626,7 @@
         <v>9022.022230849992</v>
       </c>
       <c r="H1009">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1010" spans="1:8">
@@ -26652,7 +26652,7 @@
         <v>9022.022230849992</v>
       </c>
       <c r="H1010">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1011" spans="1:8">
@@ -26678,7 +26678,7 @@
         <v>9024.535530849993</v>
       </c>
       <c r="H1011">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1012" spans="1:8">
@@ -26704,7 +26704,7 @@
         <v>9024.116230849993</v>
       </c>
       <c r="H1012">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1013" spans="1:8">
@@ -26730,7 +26730,7 @@
         <v>8984.840930849994</v>
       </c>
       <c r="H1013">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1014" spans="1:8">
@@ -26756,7 +26756,7 @@
         <v>8951.377730849994</v>
       </c>
       <c r="H1014">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1015" spans="1:8">
@@ -29122,7 +29122,7 @@
         <v>9471.97832312999</v>
       </c>
       <c r="H1105">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1106" spans="1:8">
@@ -29148,7 +29148,7 @@
         <v>9490.632569659991</v>
       </c>
       <c r="H1106">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1107" spans="1:8">
@@ -29174,7 +29174,7 @@
         <v>9484.658525689991</v>
       </c>
       <c r="H1107">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1108" spans="1:8">
@@ -29200,7 +29200,7 @@
         <v>9484.66222568999</v>
       </c>
       <c r="H1108">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1109" spans="1:8">
@@ -29226,7 +29226,7 @@
         <v>9463.572625689991</v>
       </c>
       <c r="H1109">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1110" spans="1:8">
@@ -31280,7 +31280,7 @@
         <v>10563.20111508999</v>
       </c>
       <c r="H1188">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1189" spans="1:8">
@@ -31306,7 +31306,7 @@
         <v>10183.45641508999</v>
       </c>
       <c r="H1189">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1190" spans="1:8">
@@ -31358,7 +31358,7 @@
         <v>10256.23792138999</v>
       </c>
       <c r="H1191">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1192" spans="1:8">
@@ -31384,7 +31384,7 @@
         <v>10232.53502138999</v>
       </c>
       <c r="H1192">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1193" spans="1:8">
@@ -31410,7 +31410,7 @@
         <v>10227.74702138999</v>
       </c>
       <c r="H1193">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1194" spans="1:8">
@@ -31852,7 +31852,7 @@
         <v>10290.96313511999</v>
       </c>
       <c r="H1210">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1211" spans="1:8">
@@ -31878,7 +31878,7 @@
         <v>10315.56593511999</v>
       </c>
       <c r="H1211">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1212" spans="1:8">
@@ -31904,7 +31904,7 @@
         <v>10373.82983511999</v>
       </c>
       <c r="H1212">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1213" spans="1:8">
@@ -31930,7 +31930,7 @@
         <v>10452.38793511999</v>
       </c>
       <c r="H1213">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1214" spans="1:8">
@@ -31956,7 +31956,7 @@
         <v>10433.84873511999</v>
       </c>
       <c r="H1214">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1215" spans="1:8">
@@ -31982,7 +31982,7 @@
         <v>10633.25823511999</v>
       </c>
       <c r="H1215">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1216" spans="1:8">
@@ -32008,7 +32008,7 @@
         <v>10713.60703511999</v>
       </c>
       <c r="H1216">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1217" spans="1:8">
@@ -32034,7 +32034,7 @@
         <v>10983.37893620999</v>
       </c>
       <c r="H1217">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1218" spans="1:8">
@@ -32060,7 +32060,7 @@
         <v>11515.62807357999</v>
       </c>
       <c r="H1218">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1219" spans="1:8">
@@ -32086,7 +32086,7 @@
         <v>11451.71857357999</v>
       </c>
       <c r="H1219">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1220" spans="1:8">
@@ -32112,7 +32112,7 @@
         <v>11451.71857357999</v>
       </c>
       <c r="H1220">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1221" spans="1:8">
@@ -32138,7 +32138,7 @@
         <v>11424.73607357999</v>
       </c>
       <c r="H1221">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1222" spans="1:8">
@@ -32164,7 +32164,7 @@
         <v>11475.82763888999</v>
       </c>
       <c r="H1222">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1223" spans="1:8">
@@ -32190,7 +32190,7 @@
         <v>11576.96923888999</v>
       </c>
       <c r="H1223">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1224" spans="1:8">
@@ -32216,7 +32216,7 @@
         <v>11734.84033889</v>
       </c>
       <c r="H1224">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1225" spans="1:8">
@@ -32242,7 +32242,7 @@
         <v>12094.34357000999</v>
       </c>
       <c r="H1225">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1226" spans="1:8">
@@ -32268,7 +32268,7 @@
         <v>12404.56049637999</v>
       </c>
       <c r="H1226">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1227" spans="1:8">
@@ -32294,7 +32294,7 @@
         <v>13450.88067875999</v>
       </c>
       <c r="H1227">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1228" spans="1:8">
@@ -32710,7 +32710,7 @@
         <v>15602.01963174</v>
       </c>
       <c r="H1243">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1244" spans="1:8">
@@ -32788,7 +32788,7 @@
         <v>14827.83035352</v>
       </c>
       <c r="H1246">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1247" spans="1:8">
@@ -32840,7 +32840,7 @@
         <v>15232.59053199</v>
       </c>
       <c r="H1248">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1249" spans="1:8">
@@ -32866,7 +32866,7 @@
         <v>15402.84606047</v>
       </c>
       <c r="H1249">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1250" spans="1:8">
@@ -32892,7 +32892,7 @@
         <v>15138.77305686</v>
       </c>
       <c r="H1250">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1251" spans="1:8">
@@ -32918,7 +32918,7 @@
         <v>15301.43858161</v>
       </c>
       <c r="H1251">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1252" spans="1:8">
@@ -32944,7 +32944,7 @@
         <v>14807.29451798</v>
       </c>
       <c r="H1252">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1253" spans="1:8">
@@ -33126,7 +33126,7 @@
         <v>13564.78283243</v>
       </c>
       <c r="H1259">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1260" spans="1:8">
@@ -33152,7 +33152,7 @@
         <v>14075.34533306</v>
       </c>
       <c r="H1260">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1261" spans="1:8">
@@ -33178,7 +33178,7 @@
         <v>13932.34109013</v>
       </c>
       <c r="H1261">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1262" spans="1:8">
@@ -33204,7 +33204,7 @@
         <v>13961.36209103</v>
       </c>
       <c r="H1262">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1263" spans="1:8">
@@ -33230,7 +33230,7 @@
         <v>14398.90379103</v>
       </c>
       <c r="H1263">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1264" spans="1:8">
@@ -33256,7 +33256,7 @@
         <v>14305.64659103</v>
       </c>
       <c r="H1264">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1265" spans="1:8">
@@ -33282,7 +33282,7 @@
         <v>14232.00029103</v>
       </c>
       <c r="H1265">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1266" spans="1:8">
@@ -33308,7 +33308,7 @@
         <v>14432.92755207</v>
       </c>
       <c r="H1266">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1267" spans="1:8">
@@ -33334,7 +33334,7 @@
         <v>14384.31575207</v>
       </c>
       <c r="H1267">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1268" spans="1:8">
@@ -33360,7 +33360,7 @@
         <v>14429.14105207</v>
       </c>
       <c r="H1268">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1269" spans="1:8">
@@ -33386,7 +33386,7 @@
         <v>14183.67975207</v>
       </c>
       <c r="H1269">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1270" spans="1:8">
@@ -33412,7 +33412,7 @@
         <v>13995.01350059</v>
       </c>
       <c r="H1270">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1271" spans="1:8">
@@ -33438,7 +33438,7 @@
         <v>14315.23439925</v>
       </c>
       <c r="H1271">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1272" spans="1:8">
@@ -33464,7 +33464,7 @@
         <v>14263.14019925</v>
       </c>
       <c r="H1272">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1273" spans="1:8">
@@ -33490,7 +33490,7 @@
         <v>14216.35299925</v>
       </c>
       <c r="H1273">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1274" spans="1:8">
@@ -33516,7 +33516,7 @@
         <v>14189.27189925</v>
       </c>
       <c r="H1274">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1275" spans="1:8">
@@ -33542,7 +33542,7 @@
         <v>14284.55199925</v>
       </c>
       <c r="H1275">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1276" spans="1:8">
@@ -33594,7 +33594,7 @@
         <v>14918.19463637</v>
       </c>
       <c r="H1277">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1278" spans="1:8">
@@ -33620,7 +33620,7 @@
         <v>14543.83804193</v>
       </c>
       <c r="H1278">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1279" spans="1:8">
@@ -33646,7 +33646,7 @@
         <v>14923.65243303</v>
       </c>
       <c r="H1279">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1280" spans="1:8">
@@ -33672,7 +33672,7 @@
         <v>15746.59111772</v>
       </c>
       <c r="H1280">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1281" spans="1:8">
@@ -33698,7 +33698,7 @@
         <v>15286.06218841</v>
       </c>
       <c r="H1281">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1282" spans="1:8">
@@ -33724,7 +33724,7 @@
         <v>15758.56538841</v>
       </c>
       <c r="H1282">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1283" spans="1:8">
@@ -33750,7 +33750,7 @@
         <v>15037.83795666</v>
       </c>
       <c r="H1283">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1284" spans="1:8">
@@ -33776,7 +33776,7 @@
         <v>15684.66006039</v>
       </c>
       <c r="H1284">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1285" spans="1:8">
@@ -33802,7 +33802,7 @@
         <v>16048.65636039</v>
       </c>
       <c r="H1285">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1286" spans="1:8">
@@ -33828,7 +33828,7 @@
         <v>15670.36707006</v>
       </c>
       <c r="H1286">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1287" spans="1:8">
@@ -33854,7 +33854,7 @@
         <v>15257.92583746</v>
       </c>
       <c r="H1287">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1288" spans="1:8">
@@ -33880,7 +33880,7 @@
         <v>15740.59086142</v>
       </c>
       <c r="H1288">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
